--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D06C5-2969-4017-9747-29052CFBAE06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FB82E-A004-468E-B3C6-202E21D200A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -7271,7 +7271,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FCFD-2A2A-4342-87F8-3564DBC5D720}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7296,6 +7296,6606 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C26">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C31">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C42">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C43">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C46">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C50">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C55">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C59">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C65">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C71">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C72">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C74">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C77">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C82">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C85">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C86">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C88">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C92">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C93">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C94">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C95">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C110">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C111">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C119">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C121">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C122">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C124">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C128">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C132">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1">
+        <v>64504</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C137">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C139">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C140">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C144">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C145">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C151">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C153">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C154">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C155">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C157">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="1">
+        <v>64503</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C162">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C164">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C167">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C173">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C175">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C177">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C178">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C184">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C198">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C199">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C201">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C202">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C207">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66535</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C222">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C223">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C224">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C228">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C230">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C232">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C238">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C240">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C246">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C256">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C257">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C258">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C259">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C260">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C261">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C262">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C263">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B266" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C267">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C268">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C270">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C271">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C272">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C273">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C275">
+        <v>7916</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C278">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C279">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C281">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C284">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C285">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C287">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C288">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C289">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C291">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" s="1">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C295">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C296">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C297">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C298">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C299">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C300">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C303">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" s="1">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C310">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C311">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C312">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C315">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C316">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C317">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C320">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C321">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C322">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C323">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" s="1">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C328">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B330" s="1">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C332">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C333">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="1">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C341">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C342">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C344">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C346">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C348">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C349">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C350">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" s="1">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C353">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C354">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C356">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C357">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C358">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C359">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C361">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C362">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C371">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C373">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C374">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C375">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="1">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C380">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C382">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C383">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C385">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C386">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C390">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C392">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C393">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C394">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C395">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C396">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C398">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C399">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C403">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C404">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C405">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C407">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C408">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B415" s="1">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C417">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C418">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C419">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C421">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C422">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C423">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C424">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C425">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C426">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B428" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C428">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B430" s="1">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C431">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C432">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C435">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C436">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C437">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C438">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C439">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C440">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C441">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C442">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C446">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B447" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C447">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C448">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C450">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B451" s="1">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C452">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C453">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C454">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C455">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C456">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B457" s="1">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C458">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B459" s="1">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C460">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C461">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B463" s="1">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C467">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B468" s="1">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C469">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C470">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C471">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C472">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C474">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C475">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C478">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C480">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C481">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C483">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C484">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C485">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C487">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66610</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C491">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C492">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C496">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C497">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C498">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C500">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C502">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C503">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C505">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C507">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B508" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B509" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C510">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C511">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C512">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C513">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C514">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C515">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C517">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C518">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C519">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C520">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C521">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C523">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B524" s="1">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C525">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C527">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C529">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C530">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C531">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C533">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C535">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C536">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C537">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C538">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B539" s="1">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C540">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C542">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C543">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C545">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C546">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C548">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C549">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C550">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C551">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C552">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C553">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C554">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B556" s="1">
+        <v>0</v>
+      </c>
+      <c r="C556">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C557">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C559">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C560">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C561">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C562">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C563">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C564">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C565">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C566">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C569">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C572">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C575">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C577">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C578">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C579">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B580" s="1">
+        <v>0</v>
+      </c>
+      <c r="C580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C581">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C582">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C583">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C584">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C589">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C590">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B591" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B592" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C594">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C597">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C598">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C599">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C600">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FB82E-A004-468E-B3C6-202E21D200A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DCC48-B1FF-40C5-985F-94F09CB9C7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -13914,7 +13914,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65A5CD-B538-4B7C-B2A7-48592120D8ED}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C627"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13939,6 +13939,6892 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64505</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C7">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C28">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C34">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C42">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C43">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C46">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C49">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C54">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C56">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C65">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C72">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C73">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C79">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C81">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C86">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C87">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C89">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C94">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C95">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C96">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C113">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C118">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C121">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C122">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C123">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C125">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C128">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C129">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C134">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C136">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C138">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C140">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C144">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C145">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C146">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C147">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C152">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C154">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C155">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C156">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C160">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C164">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C166">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C170">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C176">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C177">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C178">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C179">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C180">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C187">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C193">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C195">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C198">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C199">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C200">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C201">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C202">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C203">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C204">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66535</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C222">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C226">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C228">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C230">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C231">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C232">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C233">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C235">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C236">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C237">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C238">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C239">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C242">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C244">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C253">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C264">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C265">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C266">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C267">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C268">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C269">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C270">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C271">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" s="1">
+        <v>64079</v>
+      </c>
+      <c r="C274">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C275">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C276">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C278">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C279">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C280">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C281">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C283">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C287">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C288">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C289">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C293">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C295">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C296">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C299">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C300">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C303">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C304">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C305">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C308">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C309">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C312">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C320">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C322">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C324">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C325">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C327">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C330">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C331">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C332">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C333">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B335" s="1">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C337">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C338">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C339">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B342" s="1">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C343">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C344">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C346">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C347">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" s="1">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C351">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C352">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C354">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C356">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C360">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C362">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" s="1">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C366">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C367">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C369">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C370">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C371">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C373">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C374">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B378" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B380" s="1">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C384">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C385">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C386">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C387">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" s="1">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C393">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C395">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C396">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C397">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C398">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C399">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C402">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C404">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C407">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C408">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C409">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C410">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C412">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C413">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C415">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C417">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C418">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C419">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C420">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C423">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B427" s="1">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C428">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C429">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C430">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C431">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C432">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C433">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C434">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C435">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C436">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C437">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B440" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B442" s="1">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C443">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C447">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C448">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C449">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C450">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C451">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C452">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C453">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C454">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C456">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B466" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B467" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B468" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C469">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C471">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C473">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C474">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B477" s="1">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C478">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B479" s="1">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C482">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B484" s="1">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C486">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B487" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B488" s="1">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C490">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C491">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C492">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C495">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C496">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C499">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C501">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C503">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C505">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C506">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C507">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C508">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C509">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C511">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C512">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C513">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C517">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C518">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C519">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C520">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C524">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C527">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C529">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B530" s="1">
+        <v>0</v>
+      </c>
+      <c r="C530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C531">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C532">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C533">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C534">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C535">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C536">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C538">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C539">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C540">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C541">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C543">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B544" s="1">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C546">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C548">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C549">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C550">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C552">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C553">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C554">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C555">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B556" s="1">
+        <v>0</v>
+      </c>
+      <c r="C556">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C557">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C558">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C559">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C562">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C564">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C565">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C566">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C569">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C570">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C571">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B574" s="1">
+        <v>0</v>
+      </c>
+      <c r="C574">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C575">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C577">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C578">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C579">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C580">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C581">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C585">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C586">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C587">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C588">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C590">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C592">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B595" s="1">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C597">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C599">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C600">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C601">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C604">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C605">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C606">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C607">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C609">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C614">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B616" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B617" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C619">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C621">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C623">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C624">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C625">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DCC48-B1FF-40C5-985F-94F09CB9C7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85627683-8F3B-4126-A3CD-6DE793D3A74D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -20843,7 +20843,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C597"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -20868,6 +20868,6562 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C23">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C39">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C40">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C42">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C46">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C50">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C53">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C59">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C65">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C66">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C68">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C75">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C80">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C81">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C83">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C84">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C86">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C87">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C91">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C92">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C109">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C115">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C118">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C119">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C121">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C122">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C131">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C133">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C137">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C138">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C143">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C144">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C146">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C147">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C148">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C152">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C154">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C157">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C158">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C166">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C167">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C168">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C169">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C170">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C176">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C191">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C192">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C193">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C194">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C195">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C196">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C214">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C216">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C218">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C219">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C220">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C221">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C222">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C224">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C225">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C226">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C236">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C249">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C250">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C251">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C253">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C254">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C259">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C261">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C262">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C263">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C266">
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C268">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C270">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C271">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C272">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C274">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C277">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C278">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C281">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C282">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C284">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="1">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C288">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C289">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C290">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C292">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C293">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C299">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C300">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B301" s="1">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C304">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C306">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C307">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C309">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C310">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C311">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C314">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C315">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C316">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C317">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C318">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319" s="1">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C320">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C321">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C322">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B324" s="1">
+        <v>83402</v>
+      </c>
+      <c r="C324">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B325" s="1">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C328">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C329">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C331">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C332">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" s="1">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C335">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C336">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C338">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C340">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C343">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C344">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C346">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C351">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C353">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C354">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C355">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C356">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C357">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C358">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C359">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C365">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C366">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C367">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C369">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C370">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B374" s="1">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C375">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C377">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C378">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C380">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C381">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C382">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C383">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C384">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C386">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C387">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C389">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C390">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C391">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C392">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C393">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C394">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C399">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C401">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C402">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C404">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C407">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C408">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" s="1">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C418">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C419">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C420">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C421">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C424">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C426">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C427">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C428">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C429">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C430">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B431" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" s="1">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C435">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C438">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C439">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C440">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C441">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C442">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C443">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C444">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C445">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C446">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B453" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B454" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C455">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C457">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C458">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C459">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C460">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C461">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B464" s="1">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C465">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B466" s="1">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C468">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B469" s="1">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C470">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B471" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B472" s="1">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C473">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C475">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C476">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C477">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B479" s="1">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C484">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C486">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C487">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C488">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C489">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C491">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C494">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C495">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B497" s="1">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C499">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C500">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C501">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C502">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C503">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C504">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C506">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C507">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C508">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B509" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B510" s="1">
+        <v>83402</v>
+      </c>
+      <c r="C510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C512">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C513">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C514">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C515">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C516">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C517">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C519">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C520">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C521">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C522">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C523">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B524" s="1">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C527">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C529">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C530">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C531">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C532">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C533">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C534">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C535">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B537" s="1">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C538">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C539">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C540">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C543">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C545">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C547">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C548">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C549">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C551">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C552">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C554">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B555" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B557" s="1">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C558">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C560">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C561">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C562">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C564">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C565">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C566">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C568">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C571">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C574">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C577">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C578">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C579">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B580" s="1">
+        <v>0</v>
+      </c>
+      <c r="C580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C581">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C582">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C584">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C587">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B588" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B589" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C589">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B590" s="1">
+        <v>0</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C591">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C592">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C593">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C594">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C595">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C596">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C597">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85627683-8F3B-4126-A3CD-6DE793D3A74D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03A37E-C62A-4DB3-8A2C-6FF0744DB7B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="4" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -589,7 +589,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C593"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27438,9 +27438,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C648"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27462,6 +27462,7123 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C23">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C40">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C41">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C42">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C46">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C49">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C53">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C61">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C67">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C68">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C80">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C83">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C84">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C86">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C90">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C91">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C92">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C110">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C113">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C118">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C119">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C121">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C123">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C127">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C129">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C133">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C139">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C140">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C141">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C142">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C148">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C149">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C154">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C157">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C158">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C159">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C163">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C164">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C166">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C167">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C171">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C172">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C173">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C176">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C181">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C182">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C183">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C184">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C185">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C186">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C191">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C192">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C197">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C198">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C199">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C200">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C203">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C204">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C206">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C207">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C208">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C209">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C210">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C211">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C215">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C222">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C226">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C227">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C228">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C232">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C233">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C234">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C235">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C239">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C242">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C244">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C255">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C263">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C264">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C266">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C267">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C269">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C273">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C274">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C275">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C277">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C279">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C281">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C282">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C285">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C288">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C290">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C291">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C295">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C296">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C297">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C299">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C300">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B304" s="1">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C305">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C306">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C307">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C311">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C312">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C314">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C315">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C320">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C322">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C323">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C324">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C325">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C326">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C327">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C330">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C331">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C332">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C333">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C334">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B335" s="1">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C338">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B342" s="1">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C343">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C344">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C345">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C347">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C348">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C349">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C350">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B352" s="1">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C353">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C354">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C356">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C358">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C359">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C360">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C361">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C364">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C365">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C367">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C368">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C369">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C370">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C371">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C372">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C373">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B380" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B382" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B383" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B386" s="1">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C388">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C389">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C390">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C391">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C392">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="1">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C396">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C397">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C398">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C400">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C401">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C403">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C404">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C406">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C408">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C409">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C411">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C412">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C413">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C414">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C415">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C416">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C420">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66503</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C424">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C425">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C427">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C432">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C435">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B440" s="1">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C442">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C443">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C444">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C446">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C448">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C449">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C450">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C451">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C452">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C454">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B455" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C455">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B457" s="1">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C459">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C460">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C461">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C462">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C463">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C464">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C466">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C467">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C468">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C469">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C472">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C473">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B475" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B476" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B477" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C477">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B478" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C480">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C483">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B484" s="1">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C485">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C486">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C488">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B489" s="1">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C490">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B491" s="1">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C492">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C493">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B494" s="1">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C495">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C498">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C499">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C500">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C501">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B504" s="1">
+        <v>0</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C506">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C509">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C511">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C512">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C513">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C514">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C515">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C516">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C518">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C519">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C520">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C522">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C525">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C526">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C527">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C528">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C529">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C530">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C531">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C532">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C533">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C534">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B536" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B537" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B538" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C538">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C539">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B540" s="1">
+        <v>0</v>
+      </c>
+      <c r="C540">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C542">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C543">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C545">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C546">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C547">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C549">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C550">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C551">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C552">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C553">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B555" s="1">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C557">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C559">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C560">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C561">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C562">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C563">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C564">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C565">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C567">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C568">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C569">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C570">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B571" s="1">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C572">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C574">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C575">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C576">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C578">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C580">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C581">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C584">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C585">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C587">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C588">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C589">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C590">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B591" s="1">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C593">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C595">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C596">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C597">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C598">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B600" s="1">
+        <v>0</v>
+      </c>
+      <c r="C600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C601">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C602">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C603">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C604">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C605">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C607">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C608">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C609">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C611">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B612" s="1">
+        <v>0</v>
+      </c>
+      <c r="C612">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C614">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C616">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C617">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C618">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B619" s="1">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C623">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C624">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C625">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C627">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C628">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C631">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B634" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C634">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B636" s="1">
+        <v>0</v>
+      </c>
+      <c r="C636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C637">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C639">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C642">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C643">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C645">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C646">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B647" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B648" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C648">
         <v>2</v>
       </c>
     </row>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03A37E-C62A-4DB3-8A2C-6FF0744DB7B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A9B48-2BC0-47A9-9F69-32E2B6504FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="4" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -589,7 +589,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C593"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7128,11 +7128,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C661" xr:uid="{5C628B7B-5592-4484-8E9C-C39D9273DFD5}">
-    <sortState ref="A2:C661">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C661">
       <sortCondition ref="A1:A661"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:C706">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C706">
     <sortCondition ref="A2:A706"/>
     <sortCondition ref="B2:B706"/>
   </sortState>
@@ -7175,7 +7175,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C735" xr:uid="{76ADA025-07CB-430F-BEF6-8792683D3C9C}"/>
-  <sortState ref="A2:C696">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C696">
     <sortCondition ref="A2:A696"/>
     <sortCondition ref="B2:B696"/>
   </sortState>
@@ -7218,7 +7218,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{328AD1D8-E2C7-46D0-83CA-289B446FD078}"/>
-  <sortState ref="A2:C674">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C674">
     <sortCondition ref="A2:A674"/>
     <sortCondition ref="B2:B674"/>
   </sortState>
@@ -13900,7 +13900,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{5DAF9C6F-73C5-40B7-B88A-A71B3710CAF7}"/>
-  <sortState ref="A2:C648">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C648">
     <sortCondition ref="A2:A648"/>
     <sortCondition ref="B2:B648"/>
   </sortState>
@@ -20829,7 +20829,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{913D352C-CB32-4B25-B044-E9106CD19BD3}"/>
-  <sortState ref="A2:C716">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C716">
     <sortCondition ref="A2:A716"/>
     <sortCondition ref="B2:B716"/>
   </sortState>
@@ -27440,7 +27440,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -34594,7 +34594,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C683"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -34621,9 +34621,7511 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C28">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C40">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C45">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C46">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C52">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C55">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C57">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C59">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C67">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C68">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C72">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C73">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C74">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C76">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C77">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C79">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C82">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C86">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C87">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C89">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C95">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C96">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C97">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C120">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C121">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C130">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C133">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C134">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C135">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C138">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C139">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C144">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C145">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C150">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C152">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C153">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C158">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C159">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>64503</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C165">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C168">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C169">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C170">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C178">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C180">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C181">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C182">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C183">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C184">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C188">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C192">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C193">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C194">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C195">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C196">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C197">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C206">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C210">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C211">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C212">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C216">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C219">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C222">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C224">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C227">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C228">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C229">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C245">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C246">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C247">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C248">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C251">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C252">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C253">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C254">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C255">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C256">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C257">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C258">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C260">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C261">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C262">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C273">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C274">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B280" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C283">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C287">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C288">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C289">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C292">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C293">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C294">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="1">
+        <v>64079</v>
+      </c>
+      <c r="C297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C299">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C300">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C302">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C304">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C305">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C308">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C311">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C312">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C313">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C317">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C318">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C319">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C320">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C323">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C324">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C327">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B330" s="1">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C331">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C332">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C333">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C334">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C335">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C336">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C337">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C339">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C344">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C345">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B347" s="1">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C351">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C352">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C353">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C354">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C355">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C356">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C357">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C358">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C359">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C360">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C362">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C363">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C364">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C365">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B367" s="1">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C368">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C369">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C370">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B372" s="1">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C375">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C376">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C378">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C379">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C380">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B382" s="1">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C383">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C385">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C387">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C389">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C390">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C392">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C393">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C397">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C398">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C399">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C400">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C401">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C402">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C404">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C405">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B410" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B413" s="1">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C414">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C417">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C419">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C420">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C421">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C422">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C427">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C428">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C429">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C430">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C431">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C432">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C433">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C434">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C435">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C436">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C437">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C438">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C440">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C442">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C443">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C444">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C445">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C447">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C448">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66401</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C452">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C453">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C455">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C457">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C459">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C463">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B473" s="1">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C474">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C475">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C476">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C477">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C478">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C479">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C481">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C482">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C483">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C484">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B487" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C487">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B489" s="1">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C491">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C493">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C495">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C496">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C498">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C499">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C500">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C501">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C502">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C504">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B511" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B512" s="1">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C514">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C515">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C516">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C517">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C518">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C519">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B520" s="1">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C521">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C523">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C525">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C526">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B527" s="1">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C528">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C529">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C530">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C531">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C532">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B534" s="1">
+        <v>0</v>
+      </c>
+      <c r="C534">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C535">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C538">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C539">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C540">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C541">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C542">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C543">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C544">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C545">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C548">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C549">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C550">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C551">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C552">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C554">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C555">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C556">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C558">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C559">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C560">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C561">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C562">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C566">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B569" s="1">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C570">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C571">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C572">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C573">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C574">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C575">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C576">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C578">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C579">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C580">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C581">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C582">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C583">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B584" s="1">
+        <v>0</v>
+      </c>
+      <c r="C584">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C585">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C586">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C588">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C589">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C590">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C591">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C592">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C593">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C595">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C596">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B598" s="1">
+        <v>0</v>
+      </c>
+      <c r="C598">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C600">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C601">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C602">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C603">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C607">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C609">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C610">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C611">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C612">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C614">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C615">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C616">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C617">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C618">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C619">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B620" s="1">
+        <v>0</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C623">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C624">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C626">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C628">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B630" s="1">
+        <v>0</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C631">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C633">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C634">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C635">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C638">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C639">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C640">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C642">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C643">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B645" s="1">
+        <v>0</v>
+      </c>
+      <c r="C645">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C646">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C647">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C649">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C650">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C651">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C652">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C653">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B654" s="1">
+        <v>0</v>
+      </c>
+      <c r="C654">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C656">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C658">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C659">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C663">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C664">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C665">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C666">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C668">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B669" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B670" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B671" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B673" s="1">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C674">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C675">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C676">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C678">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C679">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C680">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B681" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C681">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B682" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C682">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C683">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{1467ACD2-5154-4AA5-8BD5-EC36ACA4BB63}"/>
-  <sortState ref="A2:C745">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C745">
     <sortCondition ref="A2:A745"/>
     <sortCondition ref="B2:B745"/>
   </sortState>
@@ -34666,7 +42168,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{56A1A629-CA91-47DF-B266-9A81672C9993}"/>
-  <sortState ref="A2:C739">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C739">
     <sortCondition ref="A2:A739"/>
     <sortCondition ref="B2:B739"/>
   </sortState>
@@ -34709,7 +42211,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{8C8C2EBC-7198-43AE-8796-4638E95E7BBB}"/>
-  <sortState ref="A2:C744">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C744">
     <sortCondition ref="A2:A744"/>
     <sortCondition ref="B2:B744"/>
   </sortState>
@@ -34752,7 +42254,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{E592ED79-C861-48F0-96EC-B61ACC9C99F6}"/>
-  <sortState ref="A2:C685">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C685">
     <sortCondition ref="A2:A685"/>
     <sortCondition ref="B2:B685"/>
   </sortState>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2046C377-A3EB-48BA-98BA-34CE6A0CE0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9634B-38CB-40ED-8527-F5A379B35840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5957" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6634" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -7146,7 +7146,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DC31A-AD51-4885-BB98-4F5D65DA2C63}">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C651"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7171,6 +7171,7156 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C27">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C38">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66503</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C44">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C48">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C52">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C54">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C57">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C60">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C68">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C73">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C74">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C76">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C78">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C82">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C87">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C88">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C90">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C94">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C95">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66220</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C97">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C98">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C119">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C120">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C122">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C127">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C128">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C130">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C131">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C137">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C142">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C143">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C145">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C150">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C151">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C155">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C156">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C157">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C158">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C162">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C166">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C168">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C175">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C177">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C178">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C179">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C180">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C181">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C183">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C185">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C187">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C192">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C194">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C196">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C200">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C201">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C202">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C203">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C204">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" s="1">
+        <v>64505</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C210">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C219">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C220">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C223">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C225">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C226">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C229">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C231">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C232">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C233">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C234">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C236">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C238">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C249">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C257">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C261">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C262">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C263">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C266">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C271">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C273">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C274">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C275">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C277">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C280">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C281">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" s="1">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C287">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C288">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C290">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C291">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C292">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C293">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C294">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C297">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B300" s="1">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C303">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C304">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C305">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C306">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C308">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C310">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C312">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C313">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C315">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C316">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C318">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" s="1">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>64133</v>
+      </c>
+      <c r="C321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C325">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C326">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C327">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C328">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C329">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C331">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C332">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C335">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C336">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C337">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C338">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="1">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66001</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C342">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C345">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="1">
+        <v>67300</v>
+      </c>
+      <c r="C347">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C351">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C353">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C355">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C358">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C359">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C362">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C363">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C364">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C365">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C367">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C368">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C369">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B371" s="1">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C373">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C375">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C376">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C377">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C378">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C379">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C380">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C381">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C382">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C383">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B386" s="1">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C391">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C392">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C393">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C394">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C396">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C400">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C401">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C402">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C403">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C405">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C407">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C409">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C410">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C412">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C414">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C415">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C416">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C417">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C418">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C419">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C420">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C423">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C424">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C426">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C427">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C431">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C436">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C438">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C439">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C441">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C442">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C443">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C444">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C445">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C446">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B447" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C447">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C448">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B449" s="1">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C450">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C451">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C452">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C453">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C455">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C456">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C457">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C459">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C462">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B464" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B465" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C465">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C467">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C469">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B472" s="1">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C473">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C474">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C475">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C477">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B480" s="1">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C481">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B483" s="1">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C484">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C488">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B490" s="1">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C491">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B493" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B494" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C496">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C498">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C499">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C500">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C501">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66407</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C505">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C508">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C511">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C513">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C514">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C515">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C516">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C517">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C519">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C521">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C522">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C523">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C524">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B525" s="1">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C528">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C529">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C530">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C531">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C533">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C535">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C536">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B538" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B539" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B540" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B541" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B543" s="1">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C544">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C545">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C546">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C548">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C549">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C550">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C551">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C552">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C554">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B555" s="1">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C557">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C558">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C560">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C562">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C564">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C565">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C566">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C567">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C568">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C569">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B570" s="1">
+        <v>0</v>
+      </c>
+      <c r="C570">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C572">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C573">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C575">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C576">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C577">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C579">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C580">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C581">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C582">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C583">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C584">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C585">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C586">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C589">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66610</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B592" s="1">
+        <v>0</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C593">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C594">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C595">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C596">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C598">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C599">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C600">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C602">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C603">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C604">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C607">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C608">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C609">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C610">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B611" s="1">
+        <v>0</v>
+      </c>
+      <c r="C611">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C612">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C615">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C617">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C618">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C619">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B620" s="1">
+        <v>0</v>
+      </c>
+      <c r="C620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C621">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C622">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C624">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C626">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C627">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C629">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C633">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C635">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C636">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B637" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B638" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C638">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B639" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C640">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C641">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C644">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C645">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C646">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C647">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C648">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B651" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9634B-38CB-40ED-8527-F5A379B35840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2778097-245A-4F52-BAA9-C622DFC4C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">June!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">March!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">May!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">November!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">November!$A$1:$C$601</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">October!$A$1:$C$735</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">September!$A$1:$C$1</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6634" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7257" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -14339,7 +14339,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E281BB9B-3635-450C-9750-AAA8261D8A1F}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -14366,8 +14366,6608 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C14">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C25">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C37">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C41">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C42">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C48">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C50">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C53">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C55">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C61">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C63">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C68">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C71">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C80">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66103</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C84">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C85">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C86">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C87">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C92">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C93">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C94">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C95">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C115">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C118">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C123">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C125">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C127">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C132">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C139">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C141">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C146">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C149">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C153">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C155">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C157">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C158">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C160">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C165">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C167">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C175">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C176">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C177">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C178">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C183">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C189">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C190">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C191">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C194">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C195">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C196">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C197">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C198">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C199">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C205">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C211">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C215">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C216">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C217">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C218">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C221">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C223">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C224">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C226">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C227">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C229">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C238">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C247">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C248">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C251">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C252">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C253">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C254">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C256">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B259" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C260">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C261">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C262">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C263">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C265">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C267">
+        <v>7091</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C268">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C270">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C271">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C276">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C277">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C279">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C282">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C283">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C285">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="1">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C288">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C289">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C290">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C292">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C294">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C300">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B304" s="1">
+        <v>64133</v>
+      </c>
+      <c r="C304">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C306">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C309">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C310">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C311">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C313">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C314">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C315">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C318">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C319">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C320">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C321">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C323">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C325">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C328">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C329">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C331">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C332">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" s="1">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C336">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C337">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C339">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C341">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C344">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C346">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C350">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C352">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C354">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C356">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C357">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C368">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C369">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C370">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C371">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C375">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" s="1">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C378">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C379">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C380">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C382">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C383">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C384">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C387">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C389">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C391">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C392">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C393">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C394">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C395">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C396">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C399">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C400">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C401">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C403">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C411">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B416" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C417">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C418">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C419">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C421">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C422">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C423">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C424">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C425">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B427" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C427">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B429" s="1">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C431">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C432">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C435">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C436">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C437">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C438">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C439">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C440">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C441">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B443" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C443">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B444" s="1">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C445">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C446">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C448">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C449">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B450" s="1">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C453">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C455">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B459" s="1">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C460">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B461" s="1">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C465">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B466" s="1">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C467">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C469">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C470">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B471" s="1">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C472">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C475">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C476">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C477">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B479" s="1">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66407</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C483">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C484">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C485">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C486">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C487">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C488">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C489">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C490">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C492">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C493">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C494">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C495">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B497" s="1">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C499">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C500">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C501">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C502">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C504">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C505">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C507">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B510" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B511" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C512">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C513">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C514">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C515">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C516">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C517">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C518">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C519">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C522">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B523" s="1">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C524">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C525">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C527">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C528">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C529">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C531">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C533">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C535">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C536">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C537">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B538" s="1">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C540">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C541">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C543">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C544">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C545">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C546">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C547">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C549">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C550">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C552">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C554">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B555" s="1">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C556">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C557">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C558">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C559">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C560">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C561">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C563">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C564">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C565">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C566">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C569">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C570">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C572">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C578">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C579">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C580">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C581">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B582" s="1">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C584">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C585">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C586">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C588">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C591">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B593" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B594" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C596">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C597">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C598">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C599">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C600">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C601">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{328AD1D8-E2C7-46D0-83CA-289B446FD078}"/>
+  <autoFilter ref="A1:C601" xr:uid="{328AD1D8-E2C7-46D0-83CA-289B446FD078}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C674">
     <sortCondition ref="A2:A674"/>
     <sortCondition ref="B2:B674"/>

--- a/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
+++ b/statistics_files/2024/2024_99_d_circulation_zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2778097-245A-4F52-BAA9-C622DFC4C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492EFBC-C563-4358-8C20-3D9C36F61402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7257" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7863" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -20982,7 +20982,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB9782-1E9D-42E0-A87D-FAC2219B8813}">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -21007,6 +21007,6397 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C24">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C33">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66503</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C38">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C39">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C42">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C47">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C49">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C53">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C64">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C65">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C69">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C73">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C78">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C80">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C81">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C82">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C86">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C87">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C88">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C103">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C110">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C113">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C114">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C115">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C122">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C125">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C127">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C129">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="1">
+        <v>64503</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C134">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C137">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C138">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C139">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C145">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C147">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C154">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C155">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C156">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C157">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C161">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C164">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C167">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C171">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C173">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C174">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66103</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C189">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C194">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C196">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C198">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C200">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C201">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B206" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C212">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C213">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C225">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C228">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C229">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C231">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C234">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C238">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C239">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C241">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C242">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C243">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C244">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C246">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C248">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C249">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C254">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C257">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C258">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C260">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C261">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C263">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C267">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C268">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C271">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C272">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C277">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B280" s="1">
+        <v>64133</v>
+      </c>
+      <c r="C280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C282">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C285">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C286">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C287">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C290">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C293">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C296">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C298">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C299">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C300">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="1">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C304">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B305" s="1">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C309">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C310">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C311">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C313">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C318">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C320">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C321">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C323">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C324">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C325">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B327" s="1">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C328">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C331">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C332">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C333">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C335">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C336">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B340" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B341" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B342" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B343" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B344" s="1">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C345">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C346">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C347">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C348">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C349">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C351">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C355">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C358">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C359">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C360">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C361">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C363">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C365">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C366">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C367">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C368">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C369">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C370">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C371">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C374">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C375">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C377">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C378">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C379">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B386" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C389">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C391">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C393">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C394">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C395">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C397">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B400" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C400">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B402" s="1">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C403">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C405">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C406">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C407">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C409">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C411">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C412">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C414">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B417" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B418" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C418">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B419" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B420" s="1">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C421">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C422">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C424">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B425" s="1">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C428">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B432" s="1">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C433">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B436" s="1">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C437">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C439">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B441" s="1">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C442">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C444">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B446" s="1">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C449">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C450">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66407</v>
+      </c>
+      <c r="C453">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C454">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C455">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C456">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C458">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C459">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C460">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C461">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C462">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C464">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C465">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C466">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C467">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C470">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C471">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C472">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C474">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C476">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C477">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B480" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B481" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B483" s="1">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C484">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C485">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C486">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C487">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C488">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C489">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C491">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B494" s="1">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C495">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C499">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C500">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C501">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C502">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C503">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C504">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C505">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C507">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C508">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B509" s="1">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C511">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C512">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C513">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C514">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C516">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C518">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C519">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C522">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C523">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C524">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C525">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C526">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C532">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C534">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C535">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C536">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C538">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B539" s="1">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C541">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C542">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C543">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C544">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C547">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C548">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C549">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C550">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B552" s="1">
+        <v>0</v>
+      </c>
+      <c r="C552">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C553">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C555">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C556">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C558">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B559" s="1">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C560">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C562">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C563">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C565">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C568">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B573" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C575">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C576">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C577">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C578">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C579">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
